--- a/biology/Botanique/Photinia/Photinia.xlsx
+++ b/biology/Botanique/Photinia/Photinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Photinia, ou les Photinies, est un genre de plantes à fleurs de la famille des Rosacées. Il comprend de 40 à 60 espèces d'arbustes originaires de souche de l'Himalaya et d'Asie. 
 Les Photinia ont été hybridées par l'homme. Ces photinias sont alors utilisés comme arbustes d'ornement seuls ou en massifs ou en haie simple ou mixte (souvent en mélange avec le laurier du Caucase). L'intérêt est alors dans son caractère bicolore quasiment permanent : les jeunes feuilles sont en effet rouges et virent au vert foncé en vieillissant.
 Il fleurit d'avril à mai avec de petites fleurs groupées en bout de branches, odeur un peu forte et âcre, hauteur moyenne 1,50 m.
-Le Photinia apprécie le soleil et est résistant au froid jusqu'à -15 °C[1].
+Le Photinia apprécie le soleil et est résistant au froid jusqu'à -15 °C.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Photinia  vient du grec φωτεινός - phôteinos, brillant, lumineux, en référence à l'apparence des feuilles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Photinia  vient du grec φωτεινός - phôteinos, brillant, lumineux, en référence à l'apparence des feuilles.
 </t>
         </is>
       </c>
@@ -547,7 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces les plus connues
+          <t>Espèces les plus connues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Photinia davidiana (Dcne.) Cardot
 Photinia floribunda (Lindl.) Robertson et Phipps
 Photinia ×fraseri Dress
@@ -556,7 +576,43 @@
 Photinia pyrifolia (Lam.) Robertson et Phipps
 Photinia serratifolia (Desf.) Kalkm.
 Photinia villosa (Thunb.) DC.
-Espèces persistantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Photinia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photinia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces persistantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Photinia amphidoxa (voir Stranvaesia amphidoxa)
 Photinia anlungensis
 Photinia beckii
@@ -586,7 +642,43 @@
 Photinia tomentosa (voir Stranvaesia tomentosa)
 Photinia tushanensis
 Photinia zhejiangensis
-Espèces caduques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Photinia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Photinia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces caduques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Photinia arguta (syn. Pourthiaea arguta)
 Photinia beauverdiana (syn. Pourthiaea beauverdiana)
 Photinia benthamiana (syn. Pourthiaea benthamiana)
